--- a/data/df_demand-50PC.xlsx
+++ b/data/df_demand-50PC.xlsx
@@ -1,39 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
-  <si>
-    <t>scenario</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>GERMANY</t>
-  </si>
-  <si>
-    <t>JAPAN</t>
-  </si>
-  <si>
-    <t>BRAZIL</t>
-  </si>
-  <si>
-    <t>INDIA</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -72,22 +50,89 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -388,27 +433,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>scenario</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>JAPAN</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>INDIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -431,7 +488,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3">
       <c r="A3" s="1" t="n">
         <v>0</v>
       </c>
@@ -439,22 +496,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>63088.51463150652</v>
+        <v>2991205.30043989</v>
       </c>
       <c r="D3" t="n">
-        <v>52094.38819767585</v>
+        <v>54514.61890996825</v>
       </c>
       <c r="E3" t="n">
-        <v>2648953.19031637</v>
+        <v>2258876.073581676</v>
       </c>
       <c r="F3" t="n">
-        <v>215451.0444483997</v>
+        <v>87859.71642435543</v>
       </c>
       <c r="G3" t="n">
-        <v>160798.3684712704</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>181071.2715150988</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="1" t="n">
         <v>1</v>
       </c>
@@ -462,22 +519,22 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>3580147.090962696</v>
+        <v>1761600.427521972</v>
       </c>
       <c r="D4" t="n">
-        <v>180974.5580352084</v>
+        <v>113256.3122034624</v>
       </c>
       <c r="E4" t="n">
-        <v>1281686.721450973</v>
+        <v>1452139.370140543</v>
       </c>
       <c r="F4" t="n">
-        <v>120709.8671765101</v>
+        <v>190280.575664759</v>
       </c>
       <c r="G4" t="n">
-        <v>100327.722674593</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>35268.00760252831</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="1" t="n">
         <v>2</v>
       </c>
@@ -485,22 +542,22 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>3866647.222810243</v>
+        <v>4006087.155966665</v>
       </c>
       <c r="D5" t="n">
-        <v>29913.01274884825</v>
+        <v>170555.4858579707</v>
       </c>
       <c r="E5" t="n">
-        <v>1246285.852445757</v>
+        <v>580897.8130018818</v>
       </c>
       <c r="F5" t="n">
-        <v>78067.57403416274</v>
+        <v>148096.436596825</v>
       </c>
       <c r="G5" t="n">
-        <v>93075.50481916349</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>187511.9271237493</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="1" t="n">
         <v>3</v>
       </c>
@@ -508,22 +565,22 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>1891384.405039234</v>
+        <v>2428444.845555574</v>
       </c>
       <c r="D6" t="n">
-        <v>76455.18983928851</v>
+        <v>55521.33863272053</v>
       </c>
       <c r="E6" t="n">
-        <v>2059236.436534216</v>
+        <v>1434764.124354501</v>
       </c>
       <c r="F6" t="n">
-        <v>336303.2918329127</v>
+        <v>253052.4218059452</v>
       </c>
       <c r="G6" t="n">
-        <v>191181.4727259422</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>240376.9425888922</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="1" t="n">
         <v>4</v>
       </c>
@@ -531,22 +588,22 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>2503310.845355937</v>
+        <v>1401537.528549546</v>
       </c>
       <c r="D7" t="n">
-        <v>72093.62399742746</v>
+        <v>49316.11643368042</v>
       </c>
       <c r="E7" t="n">
-        <v>2051917.293190395</v>
+        <v>2424321.260735792</v>
       </c>
       <c r="F7" t="n">
-        <v>32367.97063701838</v>
+        <v>64870.25969605504</v>
       </c>
       <c r="G7" t="n">
-        <v>274735.3016953259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>111642.9930037338</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="1" t="n">
         <v>5</v>
       </c>
@@ -554,22 +611,22 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>1377209.294263517</v>
+        <v>1811270.165040371</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>24820.21341526521</v>
       </c>
       <c r="E8" t="n">
-        <v>2294863.485972412</v>
+        <v>693434.7925806625</v>
       </c>
       <c r="F8" t="n">
-        <v>130145.038196281</v>
+        <v>92026.91028339765</v>
       </c>
       <c r="G8" t="n">
-        <v>278806.1801724235</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>215499.7792355553</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="1" t="n">
         <v>6</v>
       </c>
@@ -577,22 +634,22 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>3633262.744634152</v>
+        <v>3445133.674960274</v>
       </c>
       <c r="D9" t="n">
-        <v>35676.70694875831</v>
+        <v>168407.1427857085</v>
       </c>
       <c r="E9" t="n">
-        <v>2505260.898313039</v>
+        <v>1675360.585667621</v>
       </c>
       <c r="F9" t="n">
-        <v>174581.1118483151</v>
+        <v>161942.8413972931</v>
       </c>
       <c r="G9" t="n">
-        <v>127804.5630079739</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>187796.1898487312</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="1" t="n">
         <v>7</v>
       </c>
@@ -600,22 +657,22 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>2369455.973474393</v>
+        <v>3727562.612967228</v>
       </c>
       <c r="D10" t="n">
-        <v>67810.47576707955</v>
+        <v>109960.9142032025</v>
       </c>
       <c r="E10" t="n">
-        <v>3592234.478999379</v>
+        <v>2311773.702439921</v>
       </c>
       <c r="F10" t="n">
-        <v>138488.6378279218</v>
+        <v>242496.3964272455</v>
       </c>
       <c r="G10" t="n">
-        <v>171648.0043373239</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>32808.38717558203</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="1" t="n">
         <v>8</v>
       </c>
@@ -623,22 +680,22 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>3317389.932249934</v>
+        <v>4894030.139319326</v>
       </c>
       <c r="D11" t="n">
-        <v>95374.24614019289</v>
+        <v>157067.5954593731</v>
       </c>
       <c r="E11" t="n">
-        <v>766453.3329804789</v>
+        <v>850790.0002393977</v>
       </c>
       <c r="F11" t="n">
-        <v>174453.4985878366</v>
+        <v>171299.8353168587</v>
       </c>
       <c r="G11" t="n">
-        <v>175027.7344493101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>152420.3658640793</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="1" t="n">
         <v>9</v>
       </c>
@@ -646,22 +703,22 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>4141231.950280233</v>
+        <v>2757676.660257766</v>
       </c>
       <c r="D12" t="n">
-        <v>353.9477474529122</v>
+        <v>63041.34478624013</v>
       </c>
       <c r="E12" t="n">
-        <v>153434.1061719581</v>
+        <v>894806.7361461394</v>
       </c>
       <c r="F12" t="n">
-        <v>200617.500137152</v>
+        <v>188540.2148784116</v>
       </c>
       <c r="G12" t="n">
-        <v>188937.0431235142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>317851.9777183075</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="1" t="n">
         <v>10</v>
       </c>
@@ -669,22 +726,22 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>4116421.397312938</v>
+        <v>2891976.319498987</v>
       </c>
       <c r="D13" t="n">
-        <v>89533.27712302808</v>
+        <v>78202.31118292162</v>
       </c>
       <c r="E13" t="n">
-        <v>1965089.158174446</v>
+        <v>1671342.125709666</v>
       </c>
       <c r="F13" t="n">
-        <v>106900.8701341332</v>
+        <v>200450.5394247499</v>
       </c>
       <c r="G13" t="n">
-        <v>111636.6175996528</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>160909.4560747682</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="1" t="n">
         <v>11</v>
       </c>
@@ -692,22 +749,22 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>3755896.698819456</v>
+        <v>267934.1406861469</v>
       </c>
       <c r="D14" t="n">
-        <v>77167.98442650109</v>
+        <v>171568.5649544686</v>
       </c>
       <c r="E14" t="n">
-        <v>979667.9230085649</v>
+        <v>3272358.320741379</v>
       </c>
       <c r="F14" t="n">
-        <v>163151.740412212</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>164353.23012049</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>145818.8590796899</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="1" t="n">
         <v>12</v>
       </c>
@@ -715,22 +772,22 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>3754033.327120255</v>
+        <v>2322037.572441962</v>
       </c>
       <c r="D15" t="n">
-        <v>93152.29540810193</v>
+        <v>92188.35093592865</v>
       </c>
       <c r="E15" t="n">
-        <v>1612422.399191376</v>
+        <v>1206919.60565704</v>
       </c>
       <c r="F15" t="n">
-        <v>204636.8704600203</v>
+        <v>97996.65129471618</v>
       </c>
       <c r="G15" t="n">
-        <v>142247.1427037318</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>31398.70428221495</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="1" t="n">
         <v>13</v>
       </c>
@@ -738,22 +795,22 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>1853020.163471038</v>
+        <v>1082720.314424556</v>
       </c>
       <c r="D16" t="n">
-        <v>143279.0843439439</v>
+        <v>98263.13295259372</v>
       </c>
       <c r="E16" t="n">
-        <v>2707524.115878106</v>
+        <v>2289566.780855653</v>
       </c>
       <c r="F16" t="n">
-        <v>176764.2089563195</v>
+        <v>73438.1529575414</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>115137.567770382</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="1" t="n">
         <v>14</v>
       </c>
@@ -761,22 +818,22 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>2412943.237974717</v>
+        <v>2462934.378956435</v>
       </c>
       <c r="D17" t="n">
-        <v>49702.80431849581</v>
+        <v>114036.9405725121</v>
       </c>
       <c r="E17" t="n">
-        <v>2622005.152185016</v>
+        <v>2618867.491395666</v>
       </c>
       <c r="F17" t="n">
-        <v>130773.1968653105</v>
+        <v>124826.1840037685</v>
       </c>
       <c r="G17" t="n">
-        <v>162228.8325355961</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>128298.7035551516</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="1" t="n">
         <v>15</v>
       </c>
@@ -784,22 +841,22 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>2744024.171239967</v>
+        <v>2535700.781509064</v>
       </c>
       <c r="D18" t="n">
-        <v>30434.91586939885</v>
+        <v>99060.33703923551</v>
       </c>
       <c r="E18" t="n">
-        <v>3319995.966526751</v>
+        <v>1804270.00250498</v>
       </c>
       <c r="F18" t="n">
-        <v>88692.08138337622</v>
+        <v>152530.8459679811</v>
       </c>
       <c r="G18" t="n">
-        <v>154717.7461179704</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>73006.63035992094</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="1" t="n">
         <v>16</v>
       </c>
@@ -807,22 +864,22 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>2840410.372420852</v>
+        <v>1544593.438448584</v>
       </c>
       <c r="D19" t="n">
-        <v>29763.02380496727</v>
+        <v>78466.99646528925</v>
       </c>
       <c r="E19" t="n">
-        <v>1868004.836314756</v>
+        <v>2046546.813902685</v>
       </c>
       <c r="F19" t="n">
-        <v>153258.4276175346</v>
+        <v>207447.3463710972</v>
       </c>
       <c r="G19" t="n">
-        <v>17086.03778701002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>188934.8485698421</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="1" t="n">
         <v>17</v>
       </c>
@@ -830,22 +887,22 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>597064.6048187446</v>
+        <v>1746486.960426509</v>
       </c>
       <c r="D20" t="n">
-        <v>92734.21589980295</v>
+        <v>127501.4629022525</v>
       </c>
       <c r="E20" t="n">
-        <v>730174.1734158919</v>
+        <v>1564606.998096329</v>
       </c>
       <c r="F20" t="n">
-        <v>235831.057303129</v>
+        <v>111662.0084328619</v>
       </c>
       <c r="G20" t="n">
-        <v>164766.7915810723</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>247397.381546509</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="1" t="n">
         <v>18</v>
       </c>
@@ -853,22 +910,22 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>4515024.129208959</v>
+        <v>3448213.637149101</v>
       </c>
       <c r="D21" t="n">
+        <v>34162.0481469063</v>
+      </c>
+      <c r="E21" t="n">
         <v>0</v>
       </c>
-      <c r="E21" t="n">
-        <v>1204620.74051744</v>
-      </c>
       <c r="F21" t="n">
-        <v>170315.7974615811</v>
+        <v>178606.5810497092</v>
       </c>
       <c r="G21" t="n">
-        <v>90327.51622373163</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>141021.5953742678</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="1" t="n">
         <v>19</v>
       </c>
@@ -876,22 +933,22 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>1807261.147274924</v>
+        <v>3583745.858014777</v>
       </c>
       <c r="D22" t="n">
-        <v>119.2315602935851</v>
+        <v>172373.166722057</v>
       </c>
       <c r="E22" t="n">
-        <v>993249.9166276501</v>
+        <v>1030515.693671618</v>
       </c>
       <c r="F22" t="n">
-        <v>155949.913097216</v>
+        <v>327447.1435841949</v>
       </c>
       <c r="G22" t="n">
-        <v>129036.4666418124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>161901.2639066123</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="1" t="n">
         <v>20</v>
       </c>
@@ -899,22 +956,22 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>3182647.753184586</v>
+        <v>3223074.587954978</v>
       </c>
       <c r="D23" t="n">
-        <v>115970.7175408193</v>
+        <v>175487.0857821867</v>
       </c>
       <c r="E23" t="n">
-        <v>1448066.918986203</v>
+        <v>2211187.076847984</v>
       </c>
       <c r="F23" t="n">
-        <v>215832.1508144322</v>
+        <v>131659.0768010168</v>
       </c>
       <c r="G23" t="n">
-        <v>122659.5447568725</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>143352.4048352598</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="1" t="n">
         <v>21</v>
       </c>
@@ -922,22 +979,22 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>4268969.061529785</v>
+        <v>3868588.796746509</v>
       </c>
       <c r="D24" t="n">
-        <v>105571.4220961268</v>
+        <v>104658.5019597274</v>
       </c>
       <c r="E24" t="n">
-        <v>315478.0772604556</v>
+        <v>1621080.348329856</v>
       </c>
       <c r="F24" t="n">
-        <v>127888.5390080091</v>
+        <v>192936.8636084894</v>
       </c>
       <c r="G24" t="n">
-        <v>142216.0861309122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>143666.0071715298</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="1" t="n">
         <v>22</v>
       </c>
@@ -945,22 +1002,22 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>1504881.925924599</v>
+        <v>5208304.112016737</v>
       </c>
       <c r="D25" t="n">
-        <v>31057.69567118592</v>
+        <v>5365.459003349519</v>
       </c>
       <c r="E25" t="n">
-        <v>2803591.3703832</v>
+        <v>1077312.853495393</v>
       </c>
       <c r="F25" t="n">
-        <v>117211.368485242</v>
+        <v>115316.3540227208</v>
       </c>
       <c r="G25" t="n">
-        <v>315153.4782973681</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>204968.6935780592</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="1" t="n">
         <v>23</v>
       </c>
@@ -968,22 +1025,22 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>3739338.017494515</v>
+        <v>3753261.766281569</v>
       </c>
       <c r="D26" t="n">
-        <v>87935.80805858778</v>
+        <v>27162.28192525224</v>
       </c>
       <c r="E26" t="n">
-        <v>1412039.404421216</v>
+        <v>479865.5309672798</v>
       </c>
       <c r="F26" t="n">
-        <v>384941.5262800704</v>
+        <v>36564.80989514825</v>
       </c>
       <c r="G26" t="n">
-        <v>208095.1049470268</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>171490.3544712742</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="1" t="n">
         <v>24</v>
       </c>
@@ -991,22 +1048,22 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>5597975.159537225</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>127109.730572546</v>
+        <v>116208.4641598754</v>
       </c>
       <c r="E27" t="n">
-        <v>896140.3760742764</v>
+        <v>744711.5226603632</v>
       </c>
       <c r="F27" t="n">
-        <v>226322.7569005936</v>
+        <v>70797.42344273819</v>
       </c>
       <c r="G27" t="n">
-        <v>112565.0828802015</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>177558.4303782296</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="1" t="n">
         <v>25</v>
       </c>
@@ -1014,22 +1071,22 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>4644379.134346813</v>
       </c>
       <c r="D28" t="n">
-        <v>88133.0886641102</v>
+        <v>70649.53434082246</v>
       </c>
       <c r="E28" t="n">
-        <v>1589337.8082333</v>
+        <v>3253524.633577796</v>
       </c>
       <c r="F28" t="n">
-        <v>161761.4248033252</v>
+        <v>75580.86122259811</v>
       </c>
       <c r="G28" t="n">
-        <v>145371.2464145672</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>124324.7466333682</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="1" t="n">
         <v>26</v>
       </c>
@@ -1037,22 +1094,22 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>2398834.641999777</v>
+        <v>3741623.737321513</v>
       </c>
       <c r="D29" t="n">
-        <v>116499.2168018728</v>
+        <v>170005.3799338498</v>
       </c>
       <c r="E29" t="n">
-        <v>1681929.223669942</v>
+        <v>856693.5504227468</v>
       </c>
       <c r="F29" t="n">
-        <v>91738.2388671074</v>
+        <v>236602.4182700211</v>
       </c>
       <c r="G29" t="n">
-        <v>130623.7077646581</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>221488.5390126208</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="1" t="n">
         <v>27</v>
       </c>
@@ -1060,22 +1117,22 @@
         <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>2719868.471713962</v>
+        <v>3364884.32397821</v>
       </c>
       <c r="D30" t="n">
-        <v>150739.0482105074</v>
+        <v>157332.3664230923</v>
       </c>
       <c r="E30" t="n">
-        <v>2330073.510716216</v>
+        <v>1601322.275639598</v>
       </c>
       <c r="F30" t="n">
-        <v>258450.6744135846</v>
+        <v>44256.07918991124</v>
       </c>
       <c r="G30" t="n">
-        <v>100079.2938850144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>210131.9530569877</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="1" t="n">
         <v>28</v>
       </c>
@@ -1083,22 +1140,22 @@
         <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>3597396.6510465</v>
+        <v>3204992.911633058</v>
       </c>
       <c r="D31" t="n">
-        <v>76332.54525443143</v>
+        <v>43844.53830756176</v>
       </c>
       <c r="E31" t="n">
-        <v>745020.8154773267</v>
+        <v>2847436.378533176</v>
       </c>
       <c r="F31" t="n">
-        <v>360019.4599324399</v>
+        <v>166894.1090737886</v>
       </c>
       <c r="G31" t="n">
-        <v>147734.8711549236</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>60423.37441349034</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="1" t="n">
         <v>29</v>
       </c>
@@ -1106,22 +1163,22 @@
         <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>3606110.292848613</v>
+        <v>2883149.885482016</v>
       </c>
       <c r="D32" t="n">
-        <v>94752.52183085871</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1359247.690203001</v>
+        <v>3059107.955109077</v>
       </c>
       <c r="F32" t="n">
-        <v>221296.2640141675</v>
+        <v>176861.0644721028</v>
       </c>
       <c r="G32" t="n">
-        <v>121587.989942582</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>166104.7404798061</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="1" t="n">
         <v>30</v>
       </c>
@@ -1129,22 +1186,22 @@
         <v>31</v>
       </c>
       <c r="C33" t="n">
-        <v>2643472.863927404</v>
+        <v>2598879.715356673</v>
       </c>
       <c r="D33" t="n">
-        <v>85518.51524838983</v>
+        <v>47209.88644153521</v>
       </c>
       <c r="E33" t="n">
-        <v>2638145.64572853</v>
+        <v>2209203.904048243</v>
       </c>
       <c r="F33" t="n">
-        <v>2291.488226132118</v>
+        <v>117980.9107693456</v>
       </c>
       <c r="G33" t="n">
-        <v>216547.4989938895</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>201150.0151370965</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="1" t="n">
         <v>31</v>
       </c>
@@ -1152,22 +1209,22 @@
         <v>32</v>
       </c>
       <c r="C34" t="n">
-        <v>3001900.515422632</v>
+        <v>879643.7639761688</v>
       </c>
       <c r="D34" t="n">
-        <v>158209.9988286631</v>
+        <v>116521.378436956</v>
       </c>
       <c r="E34" t="n">
-        <v>1450906.075019374</v>
+        <v>2193172.458654631</v>
       </c>
       <c r="F34" t="n">
-        <v>80714.21543470418</v>
+        <v>48799.46336294158</v>
       </c>
       <c r="G34" t="n">
-        <v>253174.6395291754</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>120787.247340165</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="1" t="n">
         <v>32</v>
       </c>
@@ -1175,22 +1232,22 @@
         <v>33</v>
       </c>
       <c r="C35" t="n">
-        <v>2279698.636328528</v>
+        <v>4850543.104594447</v>
       </c>
       <c r="D35" t="n">
-        <v>62159.69052095924</v>
+        <v>75646.80905085735</v>
       </c>
       <c r="E35" t="n">
-        <v>709656.4606219262</v>
+        <v>2111712.073920527</v>
       </c>
       <c r="F35" t="n">
-        <v>202985.612723216</v>
+        <v>99630.46664270217</v>
       </c>
       <c r="G35" t="n">
-        <v>314482.7801327867</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>205068.5742068128</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="1" t="n">
         <v>33</v>
       </c>
@@ -1198,22 +1255,22 @@
         <v>34</v>
       </c>
       <c r="C36" t="n">
-        <v>2726282.911865629</v>
+        <v>2521674.892528228</v>
       </c>
       <c r="D36" t="n">
-        <v>93055.57611350472</v>
+        <v>52987.28878299072</v>
       </c>
       <c r="E36" t="n">
-        <v>966136.6579799827</v>
+        <v>1890298.507836549</v>
       </c>
       <c r="F36" t="n">
-        <v>241101.8190005399</v>
+        <v>186789.9432085579</v>
       </c>
       <c r="G36" t="n">
-        <v>103533.3642448976</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>151974.593585232</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="1" t="n">
         <v>34</v>
       </c>
@@ -1221,22 +1278,22 @@
         <v>35</v>
       </c>
       <c r="C37" t="n">
-        <v>3165093.164541127</v>
+        <v>2681022.534574605</v>
       </c>
       <c r="D37" t="n">
-        <v>1551.482303128869</v>
+        <v>115204.1474103272</v>
       </c>
       <c r="E37" t="n">
-        <v>1316746.075974972</v>
+        <v>2585506.788915464</v>
       </c>
       <c r="F37" t="n">
-        <v>155279.6673415217</v>
+        <v>181992.1693310364</v>
       </c>
       <c r="G37" t="n">
-        <v>197952.7717773571</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>158968.2403252103</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="1" t="n">
         <v>35</v>
       </c>
@@ -1244,22 +1301,22 @@
         <v>36</v>
       </c>
       <c r="C38" t="n">
-        <v>1826791.886514851</v>
+        <v>2606087.036124913</v>
       </c>
       <c r="D38" t="n">
-        <v>108429.4736924521</v>
+        <v>100583.4552025201</v>
       </c>
       <c r="E38" t="n">
-        <v>2002481.586905386</v>
+        <v>1545944.781666589</v>
       </c>
       <c r="F38" t="n">
-        <v>184420.7842049532</v>
+        <v>161009.7889646261</v>
       </c>
       <c r="G38" t="n">
-        <v>48156.24078600353</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>239813.5705435011</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="1" t="n">
         <v>36</v>
       </c>
@@ -1267,22 +1324,22 @@
         <v>37</v>
       </c>
       <c r="C39" t="n">
-        <v>1308626.26629362</v>
+        <v>2097514.819916904</v>
       </c>
       <c r="D39" t="n">
-        <v>70453.836178964</v>
+        <v>58164.30135023665</v>
       </c>
       <c r="E39" t="n">
-        <v>501730.8529045542</v>
+        <v>818319.1956314401</v>
       </c>
       <c r="F39" t="n">
-        <v>24838.26048067055</v>
+        <v>280106.8926739487</v>
       </c>
       <c r="G39" t="n">
-        <v>209604.6493620449</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>277191.4877320345</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="1" t="n">
         <v>37</v>
       </c>
@@ -1290,22 +1347,22 @@
         <v>38</v>
       </c>
       <c r="C40" t="n">
-        <v>3054733.665053263</v>
+        <v>4375465.110307577</v>
       </c>
       <c r="D40" t="n">
-        <v>31506.19341526849</v>
+        <v>125267.6322264298</v>
       </c>
       <c r="E40" t="n">
-        <v>2094367.614877417</v>
+        <v>2683427.212244969</v>
       </c>
       <c r="F40" t="n">
-        <v>85682.73358619718</v>
+        <v>207940.8032949063</v>
       </c>
       <c r="G40" t="n">
-        <v>148224.7481571751</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>211386.676023262</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="1" t="n">
         <v>38</v>
       </c>
@@ -1313,22 +1370,22 @@
         <v>39</v>
       </c>
       <c r="C41" t="n">
-        <v>2068742.319703665</v>
+        <v>2436838.402103981</v>
       </c>
       <c r="D41" t="n">
-        <v>99913.21105468315</v>
+        <v>30333.40793902784</v>
       </c>
       <c r="E41" t="n">
-        <v>1921963.319606081</v>
+        <v>901032.6711224902</v>
       </c>
       <c r="F41" t="n">
-        <v>255170.9258338724</v>
+        <v>231992.6825655532</v>
       </c>
       <c r="G41" t="n">
-        <v>274976.6101719099</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>156650.657955976</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="1" t="n">
         <v>39</v>
       </c>
@@ -1336,22 +1393,22 @@
         <v>40</v>
       </c>
       <c r="C42" t="n">
-        <v>4034514.703287674</v>
+        <v>2553646.791221825</v>
       </c>
       <c r="D42" t="n">
-        <v>116858.5494034249</v>
+        <v>154430.8545008611</v>
       </c>
       <c r="E42" t="n">
-        <v>214071.0575648204</v>
+        <v>1724679.31523072</v>
       </c>
       <c r="F42" t="n">
-        <v>118369.0665218537</v>
+        <v>212310.5089275682</v>
       </c>
       <c r="G42" t="n">
-        <v>113177.9752141761</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>125439.7565607929</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="1" t="n">
         <v>40</v>
       </c>
@@ -1359,22 +1416,22 @@
         <v>41</v>
       </c>
       <c r="C43" t="n">
-        <v>3645576.027992033</v>
+        <v>5343608.48640581</v>
       </c>
       <c r="D43" t="n">
-        <v>160880.1450666972</v>
+        <v>29777.50069640574</v>
       </c>
       <c r="E43" t="n">
-        <v>2619233.758131173</v>
+        <v>2586667.344491026</v>
       </c>
       <c r="F43" t="n">
-        <v>29079.44062905</v>
+        <v>191053.0569217793</v>
       </c>
       <c r="G43" t="n">
-        <v>86111.73366085866</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>156105.5828389899</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="1" t="n">
         <v>41</v>
       </c>
@@ -1382,22 +1439,22 @@
         <v>42</v>
       </c>
       <c r="C44" t="n">
-        <v>2411565.10824156</v>
+        <v>1553512.685817041</v>
       </c>
       <c r="D44" t="n">
-        <v>43808.05179951631</v>
+        <v>103914.5552970953</v>
       </c>
       <c r="E44" t="n">
-        <v>2401996.618176298</v>
+        <v>2108325.259462116</v>
       </c>
       <c r="F44" t="n">
-        <v>105035.6082300027</v>
+        <v>127449.00847479</v>
       </c>
       <c r="G44" t="n">
-        <v>256987.8815894225</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>229197.0449299821</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="1" t="n">
         <v>42</v>
       </c>
@@ -1405,22 +1462,22 @@
         <v>43</v>
       </c>
       <c r="C45" t="n">
-        <v>4111053.672808128</v>
+        <v>1950676.55158708</v>
       </c>
       <c r="D45" t="n">
-        <v>2789.750231503713</v>
+        <v>137191.1030353974</v>
       </c>
       <c r="E45" t="n">
-        <v>1021239.434675839</v>
+        <v>1914807.990886492</v>
       </c>
       <c r="F45" t="n">
-        <v>175890.4064728059</v>
+        <v>264554.0988417491</v>
       </c>
       <c r="G45" t="n">
-        <v>127440.3330294081</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>183506.5013596831</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="1" t="n">
         <v>43</v>
       </c>
@@ -1428,22 +1485,22 @@
         <v>44</v>
       </c>
       <c r="C46" t="n">
-        <v>2734999.486263476</v>
+        <v>1263168.670215297</v>
       </c>
       <c r="D46" t="n">
-        <v>79182.63410091141</v>
+        <v>75260.42599611433</v>
       </c>
       <c r="E46" t="n">
-        <v>2327967.335478411</v>
+        <v>950430.4517539032</v>
       </c>
       <c r="F46" t="n">
-        <v>265646.3637753163</v>
+        <v>110159.470185077</v>
       </c>
       <c r="G46" t="n">
-        <v>166958.0803744119</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>194441.9153142396</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="1" t="n">
         <v>44</v>
       </c>
@@ -1451,22 +1508,22 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>1677208.903003991</v>
+        <v>1464145.335326585</v>
       </c>
       <c r="D47" t="n">
-        <v>31575.80837863065</v>
+        <v>112650.3755718215</v>
       </c>
       <c r="E47" t="n">
-        <v>1469471.149231245</v>
+        <v>2151317.86057943</v>
       </c>
       <c r="F47" t="n">
-        <v>84974.56811221066</v>
+        <v>201943.7213573169</v>
       </c>
       <c r="G47" t="n">
-        <v>158068.8013901967</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>81864.40729289464</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="1" t="n">
         <v>45</v>
       </c>
@@ -1474,22 +1531,22 @@
         <v>46</v>
       </c>
       <c r="C48" t="n">
-        <v>3462296.213534002</v>
+        <v>2420022.710277508</v>
       </c>
       <c r="D48" t="n">
-        <v>115678.6476877899</v>
+        <v>127584.7643733274</v>
       </c>
       <c r="E48" t="n">
-        <v>1114954.268398247</v>
+        <v>1658193.516934116</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>1649.398179567885</v>
       </c>
       <c r="G48" t="n">
-        <v>177626.7561739128</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>85044.86529603477</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="1" t="n">
         <v>46</v>
       </c>
@@ -1497,22 +1554,22 @@
         <v>47</v>
       </c>
       <c r="C49" t="n">
-        <v>769629.103606604</v>
+        <v>3060439.05791306</v>
       </c>
       <c r="D49" t="n">
-        <v>88529.51222961119</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>1069709.29958321</v>
+        <v>1942838.7087765</v>
       </c>
       <c r="F49" t="n">
-        <v>165239.7219239992</v>
+        <v>231339.9869103155</v>
       </c>
       <c r="G49" t="n">
-        <v>155737.5118439387</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>311565.4556543507</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="1" t="n">
         <v>47</v>
       </c>
@@ -1520,22 +1577,22 @@
         <v>48</v>
       </c>
       <c r="C50" t="n">
-        <v>2586743.621378251</v>
+        <v>1783291.279332126</v>
       </c>
       <c r="D50" t="n">
-        <v>109636.2496242739</v>
+        <v>129083.3993137798</v>
       </c>
       <c r="E50" t="n">
-        <v>653844.0198233161</v>
+        <v>2625002.063652098</v>
       </c>
       <c r="F50" t="n">
-        <v>144457.1774557189</v>
+        <v>33076.10837779459</v>
       </c>
       <c r="G50" t="n">
-        <v>267451.367073395</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>221462.1094794441</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="1" t="n">
         <v>48</v>
       </c>
@@ -1543,22 +1600,22 @@
         <v>49</v>
       </c>
       <c r="C51" t="n">
-        <v>3034147.536570425</v>
+        <v>2196432.276878605</v>
       </c>
       <c r="D51" t="n">
-        <v>71598.85044643265</v>
+        <v>76906.12490227073</v>
       </c>
       <c r="E51" t="n">
-        <v>2878128.092830447</v>
+        <v>2390830.656137789</v>
       </c>
       <c r="F51" t="n">
-        <v>162770.4589613178</v>
+        <v>163497.5993502414</v>
       </c>
       <c r="G51" t="n">
-        <v>151144.2291011298</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>74541.61099569265</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="1" t="n">
         <v>49</v>
       </c>
@@ -1566,22 +1623,22 @@
         <v>50</v>
       </c>
       <c r="C52" t="n">
-        <v>3433314.011385139</v>
+        <v>899833.4497932189</v>
       </c>
       <c r="D52" t="n">
-        <v>71464.06948759231</v>
+        <v>87227.44038264392</v>
       </c>
       <c r="E52" t="n">
-        <v>1038244.433291688</v>
+        <v>1991590.73419851</v>
       </c>
       <c r="F52" t="n">
-        <v>148816.4804046104</v>
+        <v>193303.9379292975</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>196859.2255148666</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/df_demand-50PC.xlsx
+++ b/data/df_demand-50PC.xlsx
@@ -496,19 +496,19 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>2991205.30043989</v>
+        <v>1821992.727804162</v>
       </c>
       <c r="D3" t="n">
-        <v>54514.61890996825</v>
+        <v>134324.0423069495</v>
       </c>
       <c r="E3" t="n">
-        <v>2258876.073581676</v>
+        <v>3463278.475702758</v>
       </c>
       <c r="F3" t="n">
-        <v>87859.71642435543</v>
+        <v>197669.5963585289</v>
       </c>
       <c r="G3" t="n">
-        <v>181071.2715150988</v>
+        <v>273631.5004485063</v>
       </c>
     </row>
     <row r="4">
@@ -519,19 +519,19 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>1761600.427521972</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>113256.3122034624</v>
+        <v>94823.42109697891</v>
       </c>
       <c r="E4" t="n">
-        <v>1452139.370140543</v>
+        <v>1693869.629402229</v>
       </c>
       <c r="F4" t="n">
-        <v>190280.575664759</v>
+        <v>84565.35143667494</v>
       </c>
       <c r="G4" t="n">
-        <v>35268.00760252831</v>
+        <v>298713.3173654054</v>
       </c>
     </row>
     <row r="5">
@@ -542,19 +542,19 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>4006087.155966665</v>
+        <v>4071513.249922195</v>
       </c>
       <c r="D5" t="n">
-        <v>170555.4858579707</v>
+        <v>86463.82799547707</v>
       </c>
       <c r="E5" t="n">
-        <v>580897.8130018818</v>
+        <v>1191756.218431402</v>
       </c>
       <c r="F5" t="n">
-        <v>148096.436596825</v>
+        <v>96256.48236378224</v>
       </c>
       <c r="G5" t="n">
-        <v>187511.9271237493</v>
+        <v>167999.1128191806</v>
       </c>
     </row>
     <row r="6">
@@ -565,19 +565,19 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>2428444.845555574</v>
+        <v>3284194.380322889</v>
       </c>
       <c r="D6" t="n">
-        <v>55521.33863272053</v>
+        <v>81748.44906033784</v>
       </c>
       <c r="E6" t="n">
-        <v>1434764.124354501</v>
+        <v>2399472.608139182</v>
       </c>
       <c r="F6" t="n">
-        <v>253052.4218059452</v>
+        <v>257107.12111341</v>
       </c>
       <c r="G6" t="n">
-        <v>240376.9425888922</v>
+        <v>177156.6596224089</v>
       </c>
     </row>
     <row r="7">
@@ -588,19 +588,19 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>1401537.528549546</v>
+        <v>3771891.283439934</v>
       </c>
       <c r="D7" t="n">
-        <v>49316.11643368042</v>
+        <v>99214.90604263439</v>
       </c>
       <c r="E7" t="n">
-        <v>2424321.260735792</v>
+        <v>597929.2410187197</v>
       </c>
       <c r="F7" t="n">
-        <v>64870.25969605504</v>
+        <v>207026.9856950479</v>
       </c>
       <c r="G7" t="n">
-        <v>111642.9930037338</v>
+        <v>156235.8758753067</v>
       </c>
     </row>
     <row r="8">
@@ -611,19 +611,19 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>1811270.165040371</v>
+        <v>1983744.224076825</v>
       </c>
       <c r="D8" t="n">
-        <v>24820.21341526521</v>
+        <v>88783.11521258381</v>
       </c>
       <c r="E8" t="n">
-        <v>693434.7925806625</v>
+        <v>1615249.9421496</v>
       </c>
       <c r="F8" t="n">
-        <v>92026.91028339765</v>
+        <v>148371.5298279388</v>
       </c>
       <c r="G8" t="n">
-        <v>215499.7792355553</v>
+        <v>219913.1665390663</v>
       </c>
     </row>
     <row r="9">
@@ -634,19 +634,19 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>3445133.674960274</v>
+        <v>2704476.002577345</v>
       </c>
       <c r="D9" t="n">
-        <v>168407.1427857085</v>
+        <v>116079.2471984072</v>
       </c>
       <c r="E9" t="n">
-        <v>1675360.585667621</v>
+        <v>1993178.477810781</v>
       </c>
       <c r="F9" t="n">
-        <v>161942.8413972931</v>
+        <v>90931.11303226775</v>
       </c>
       <c r="G9" t="n">
-        <v>187796.1898487312</v>
+        <v>170123.4397138908</v>
       </c>
     </row>
     <row r="10">
@@ -657,19 +657,19 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>3727562.612967228</v>
+        <v>2359955.975720626</v>
       </c>
       <c r="D10" t="n">
-        <v>109960.9142032025</v>
+        <v>100001.6641618423</v>
       </c>
       <c r="E10" t="n">
-        <v>2311773.702439921</v>
+        <v>86707.01081418945</v>
       </c>
       <c r="F10" t="n">
-        <v>242496.3964272455</v>
+        <v>3887.719540648046</v>
       </c>
       <c r="G10" t="n">
-        <v>32808.38717558203</v>
+        <v>133565.8215742177</v>
       </c>
     </row>
     <row r="11">
@@ -680,19 +680,19 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>4894030.139319326</v>
+        <v>4624362.401095648</v>
       </c>
       <c r="D11" t="n">
-        <v>157067.5954593731</v>
+        <v>129447.5390454478</v>
       </c>
       <c r="E11" t="n">
-        <v>850790.0002393977</v>
+        <v>1151751.695273764</v>
       </c>
       <c r="F11" t="n">
-        <v>171299.8353168587</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>152420.3658640793</v>
+        <v>208186.9205812944</v>
       </c>
     </row>
     <row r="12">
@@ -703,19 +703,19 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>2757676.660257766</v>
+        <v>1916347.727331046</v>
       </c>
       <c r="D12" t="n">
-        <v>63041.34478624013</v>
+        <v>161977.6972454842</v>
       </c>
       <c r="E12" t="n">
-        <v>894806.7361461394</v>
+        <v>1394136.574129624</v>
       </c>
       <c r="F12" t="n">
-        <v>188540.2148784116</v>
+        <v>253774.1436372102</v>
       </c>
       <c r="G12" t="n">
-        <v>317851.9777183075</v>
+        <v>206921.1688084087</v>
       </c>
     </row>
     <row r="13">
@@ -726,19 +726,19 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>2891976.319498987</v>
+        <v>2894826.754792243</v>
       </c>
       <c r="D13" t="n">
-        <v>78202.31118292162</v>
+        <v>23614.47333052421</v>
       </c>
       <c r="E13" t="n">
-        <v>1671342.125709666</v>
+        <v>1609482.895494418</v>
       </c>
       <c r="F13" t="n">
-        <v>200450.5394247499</v>
+        <v>91375.5171505186</v>
       </c>
       <c r="G13" t="n">
-        <v>160909.4560747682</v>
+        <v>203261.7661902269</v>
       </c>
     </row>
     <row r="14">
@@ -749,19 +749,19 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>267934.1406861469</v>
+        <v>3489337.37637488</v>
       </c>
       <c r="D14" t="n">
-        <v>171568.5649544686</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>3272358.320741379</v>
+        <v>1186226.510109342</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>266404.8553800737</v>
       </c>
       <c r="G14" t="n">
-        <v>145818.8590796899</v>
+        <v>65820.12786192466</v>
       </c>
     </row>
     <row r="15">
@@ -772,19 +772,19 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>2322037.572441962</v>
+        <v>2352489.808665461</v>
       </c>
       <c r="D15" t="n">
-        <v>92188.35093592865</v>
+        <v>88978.20065823455</v>
       </c>
       <c r="E15" t="n">
-        <v>1206919.60565704</v>
+        <v>972540.979418344</v>
       </c>
       <c r="F15" t="n">
-        <v>97996.65129471618</v>
+        <v>202085.8483681261</v>
       </c>
       <c r="G15" t="n">
-        <v>31398.70428221495</v>
+        <v>319277.6768577631</v>
       </c>
     </row>
     <row r="16">
@@ -795,19 +795,19 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>1082720.314424556</v>
+        <v>1554325.264811855</v>
       </c>
       <c r="D16" t="n">
-        <v>98263.13295259372</v>
+        <v>75881.3695696666</v>
       </c>
       <c r="E16" t="n">
-        <v>2289566.780855653</v>
+        <v>2870859.340665526</v>
       </c>
       <c r="F16" t="n">
-        <v>73438.1529575414</v>
+        <v>193598.6087254877</v>
       </c>
       <c r="G16" t="n">
-        <v>115137.567770382</v>
+        <v>127075.3040584962</v>
       </c>
     </row>
     <row r="17">
@@ -818,19 +818,19 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>2462934.378956435</v>
+        <v>2662065.753407084</v>
       </c>
       <c r="D17" t="n">
-        <v>114036.9405725121</v>
+        <v>105661.9519286283</v>
       </c>
       <c r="E17" t="n">
-        <v>2618867.491395666</v>
+        <v>3172393.167003595</v>
       </c>
       <c r="F17" t="n">
-        <v>124826.1840037685</v>
+        <v>185260.7822369174</v>
       </c>
       <c r="G17" t="n">
-        <v>128298.7035551516</v>
+        <v>290570.1459794664</v>
       </c>
     </row>
     <row r="18">
@@ -841,19 +841,19 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>2535700.781509064</v>
+        <v>3936995.254719991</v>
       </c>
       <c r="D18" t="n">
-        <v>99060.33703923551</v>
+        <v>53917.20466478752</v>
       </c>
       <c r="E18" t="n">
-        <v>1804270.00250498</v>
+        <v>1012098.940061424</v>
       </c>
       <c r="F18" t="n">
-        <v>152530.8459679811</v>
+        <v>237763.1845275409</v>
       </c>
       <c r="G18" t="n">
-        <v>73006.63035992094</v>
+        <v>96525.75478691026</v>
       </c>
     </row>
     <row r="19">
@@ -864,19 +864,19 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>1544593.438448584</v>
+        <v>2970919.657017857</v>
       </c>
       <c r="D19" t="n">
-        <v>78466.99646528925</v>
+        <v>79458.7607403508</v>
       </c>
       <c r="E19" t="n">
-        <v>2046546.813902685</v>
+        <v>2213624.615244245</v>
       </c>
       <c r="F19" t="n">
-        <v>207447.3463710972</v>
+        <v>42633.37723092243</v>
       </c>
       <c r="G19" t="n">
-        <v>188934.8485698421</v>
+        <v>185614.5931024218</v>
       </c>
     </row>
     <row r="20">
@@ -887,19 +887,19 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>1746486.960426509</v>
+        <v>2730098.168637878</v>
       </c>
       <c r="D20" t="n">
-        <v>127501.4629022525</v>
+        <v>73565.49401651662</v>
       </c>
       <c r="E20" t="n">
-        <v>1564606.998096329</v>
+        <v>1658818.637960592</v>
       </c>
       <c r="F20" t="n">
-        <v>111662.0084328619</v>
+        <v>116426.5651652184</v>
       </c>
       <c r="G20" t="n">
-        <v>247397.381546509</v>
+        <v>142812.6838591119</v>
       </c>
     </row>
     <row r="21">
@@ -910,19 +910,19 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>3448213.637149101</v>
+        <v>2857201.278041647</v>
       </c>
       <c r="D21" t="n">
-        <v>34162.0481469063</v>
+        <v>48023.99243478922</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>252191.7592633702</v>
       </c>
       <c r="F21" t="n">
-        <v>178606.5810497092</v>
+        <v>173098.6168342895</v>
       </c>
       <c r="G21" t="n">
-        <v>141021.5953742678</v>
+        <v>118739.9873737934</v>
       </c>
     </row>
     <row r="22">
@@ -933,19 +933,19 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>3583745.858014777</v>
+        <v>2262953.373988233</v>
       </c>
       <c r="D22" t="n">
-        <v>172373.166722057</v>
+        <v>93273.71093060204</v>
       </c>
       <c r="E22" t="n">
-        <v>1030515.693671618</v>
+        <v>2832901.259576508</v>
       </c>
       <c r="F22" t="n">
-        <v>327447.1435841949</v>
+        <v>159175.9135033879</v>
       </c>
       <c r="G22" t="n">
-        <v>161901.2639066123</v>
+        <v>228027.7048688951</v>
       </c>
     </row>
     <row r="23">
@@ -956,19 +956,19 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>3223074.587954978</v>
+        <v>1998868.290081755</v>
       </c>
       <c r="D23" t="n">
-        <v>175487.0857821867</v>
+        <v>111904.0492356565</v>
       </c>
       <c r="E23" t="n">
-        <v>2211187.076847984</v>
+        <v>2591821.105464039</v>
       </c>
       <c r="F23" t="n">
-        <v>131659.0768010168</v>
+        <v>191706.4105117395</v>
       </c>
       <c r="G23" t="n">
-        <v>143352.4048352598</v>
+        <v>98423.29973361411</v>
       </c>
     </row>
     <row r="24">
@@ -979,19 +979,19 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>3868588.796746509</v>
+        <v>2730306.972258876</v>
       </c>
       <c r="D24" t="n">
-        <v>104658.5019597274</v>
+        <v>160375.8861475413</v>
       </c>
       <c r="E24" t="n">
-        <v>1621080.348329856</v>
+        <v>636313.729748016</v>
       </c>
       <c r="F24" t="n">
-        <v>192936.8636084894</v>
+        <v>160269.8319705436</v>
       </c>
       <c r="G24" t="n">
-        <v>143666.0071715298</v>
+        <v>343250.6743974258</v>
       </c>
     </row>
     <row r="25">
@@ -1002,19 +1002,19 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>5208304.112016737</v>
+        <v>3320981.728237675</v>
       </c>
       <c r="D25" t="n">
-        <v>5365.459003349519</v>
+        <v>32491.63206086802</v>
       </c>
       <c r="E25" t="n">
-        <v>1077312.853495393</v>
+        <v>1721573.401295162</v>
       </c>
       <c r="F25" t="n">
-        <v>115316.3540227208</v>
+        <v>196450.463911921</v>
       </c>
       <c r="G25" t="n">
-        <v>204968.6935780592</v>
+        <v>267278.5657366606</v>
       </c>
     </row>
     <row r="26">
@@ -1025,19 +1025,19 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>3753261.766281569</v>
+        <v>2212692.616223444</v>
       </c>
       <c r="D26" t="n">
-        <v>27162.28192525224</v>
+        <v>39509.77989612185</v>
       </c>
       <c r="E26" t="n">
-        <v>479865.5309672798</v>
+        <v>1681142.639860642</v>
       </c>
       <c r="F26" t="n">
-        <v>36564.80989514825</v>
+        <v>69993.51416356552</v>
       </c>
       <c r="G26" t="n">
-        <v>171490.3544712742</v>
+        <v>72513.86173983575</v>
       </c>
     </row>
     <row r="27">
@@ -1048,19 +1048,19 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>228900.9418981611</v>
       </c>
       <c r="D27" t="n">
-        <v>116208.4641598754</v>
+        <v>71153.22773740886</v>
       </c>
       <c r="E27" t="n">
-        <v>744711.5226603632</v>
+        <v>1786724.039531102</v>
       </c>
       <c r="F27" t="n">
-        <v>70797.42344273819</v>
+        <v>265054.6381883833</v>
       </c>
       <c r="G27" t="n">
-        <v>177558.4303782296</v>
+        <v>107555.6275918688</v>
       </c>
     </row>
     <row r="28">
@@ -1071,19 +1071,19 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>4644379.134346813</v>
+        <v>1644562.04053668</v>
       </c>
       <c r="D28" t="n">
-        <v>70649.53434082246</v>
+        <v>54222.36329142122</v>
       </c>
       <c r="E28" t="n">
-        <v>3253524.633577796</v>
+        <v>693616.1240165386</v>
       </c>
       <c r="F28" t="n">
-        <v>75580.86122259811</v>
+        <v>80390.62506552893</v>
       </c>
       <c r="G28" t="n">
-        <v>124324.7466333682</v>
+        <v>107966.7171844596</v>
       </c>
     </row>
     <row r="29">
@@ -1094,19 +1094,19 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>3741623.737321513</v>
+        <v>3903010.546357987</v>
       </c>
       <c r="D29" t="n">
-        <v>170005.3799338498</v>
+        <v>67765.83312903572</v>
       </c>
       <c r="E29" t="n">
-        <v>856693.5504227468</v>
+        <v>1835520.778665645</v>
       </c>
       <c r="F29" t="n">
-        <v>236602.4182700211</v>
+        <v>220581.6831537905</v>
       </c>
       <c r="G29" t="n">
-        <v>221488.5390126208</v>
+        <v>8872.38634168086</v>
       </c>
     </row>
     <row r="30">
@@ -1117,19 +1117,19 @@
         <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>3364884.32397821</v>
+        <v>4989685.434970759</v>
       </c>
       <c r="D30" t="n">
-        <v>157332.3664230923</v>
+        <v>23620.57446398435</v>
       </c>
       <c r="E30" t="n">
-        <v>1601322.275639598</v>
+        <v>728156.8266954602</v>
       </c>
       <c r="F30" t="n">
-        <v>44256.07918991124</v>
+        <v>51393.33447900605</v>
       </c>
       <c r="G30" t="n">
-        <v>210131.9530569877</v>
+        <v>169847.5503080126</v>
       </c>
     </row>
     <row r="31">
@@ -1140,19 +1140,19 @@
         <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>3204992.911633058</v>
+        <v>4100719.758151072</v>
       </c>
       <c r="D31" t="n">
-        <v>43844.53830756176</v>
+        <v>122827.8954814036</v>
       </c>
       <c r="E31" t="n">
-        <v>2847436.378533176</v>
+        <v>1801766.548417015</v>
       </c>
       <c r="F31" t="n">
-        <v>166894.1090737886</v>
+        <v>299482.7951793675</v>
       </c>
       <c r="G31" t="n">
-        <v>60423.37441349034</v>
+        <v>114047.8748735089</v>
       </c>
     </row>
     <row r="32">
@@ -1163,19 +1163,19 @@
         <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>2883149.885482016</v>
+        <v>4104354.200150518</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>43323.95355997563</v>
       </c>
       <c r="E32" t="n">
-        <v>3059107.955109077</v>
+        <v>1023268.252655359</v>
       </c>
       <c r="F32" t="n">
-        <v>176861.0644721028</v>
+        <v>34733.53454019282</v>
       </c>
       <c r="G32" t="n">
-        <v>166104.7404798061</v>
+        <v>154940.9691969986</v>
       </c>
     </row>
     <row r="33">
@@ -1186,19 +1186,19 @@
         <v>31</v>
       </c>
       <c r="C33" t="n">
-        <v>2598879.715356673</v>
+        <v>2480133.701896802</v>
       </c>
       <c r="D33" t="n">
-        <v>47209.88644153521</v>
+        <v>137483.0109669131</v>
       </c>
       <c r="E33" t="n">
-        <v>2209203.904048243</v>
+        <v>3331263.31708709</v>
       </c>
       <c r="F33" t="n">
-        <v>117980.9107693456</v>
+        <v>121985.3271618363</v>
       </c>
       <c r="G33" t="n">
-        <v>201150.0151370965</v>
+        <v>28487.22948411258</v>
       </c>
     </row>
     <row r="34">
@@ -1209,19 +1209,19 @@
         <v>32</v>
       </c>
       <c r="C34" t="n">
-        <v>879643.7639761688</v>
+        <v>2567469.850101614</v>
       </c>
       <c r="D34" t="n">
-        <v>116521.378436956</v>
+        <v>111255.0925957369</v>
       </c>
       <c r="E34" t="n">
-        <v>2193172.458654631</v>
+        <v>1103640.241556862</v>
       </c>
       <c r="F34" t="n">
-        <v>48799.46336294158</v>
+        <v>39716.20879733295</v>
       </c>
       <c r="G34" t="n">
-        <v>120787.247340165</v>
+        <v>249515.8678713722</v>
       </c>
     </row>
     <row r="35">
@@ -1232,19 +1232,19 @@
         <v>33</v>
       </c>
       <c r="C35" t="n">
-        <v>4850543.104594447</v>
+        <v>5578541.412332466</v>
       </c>
       <c r="D35" t="n">
-        <v>75646.80905085735</v>
+        <v>28206.78642394763</v>
       </c>
       <c r="E35" t="n">
-        <v>2111712.073920527</v>
+        <v>1452604.826857178</v>
       </c>
       <c r="F35" t="n">
-        <v>99630.46664270217</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>205068.5742068128</v>
+        <v>200546.3326020681</v>
       </c>
     </row>
     <row r="36">
@@ -1255,19 +1255,19 @@
         <v>34</v>
       </c>
       <c r="C36" t="n">
-        <v>2521674.892528228</v>
+        <v>2788199.192768653</v>
       </c>
       <c r="D36" t="n">
-        <v>52987.28878299072</v>
+        <v>149278.4672665903</v>
       </c>
       <c r="E36" t="n">
-        <v>1890298.507836549</v>
+        <v>1126293.764046818</v>
       </c>
       <c r="F36" t="n">
-        <v>186789.9432085579</v>
+        <v>87691.16398033523</v>
       </c>
       <c r="G36" t="n">
-        <v>151974.593585232</v>
+        <v>210546.4744604404</v>
       </c>
     </row>
     <row r="37">
@@ -1278,19 +1278,19 @@
         <v>35</v>
       </c>
       <c r="C37" t="n">
-        <v>2681022.534574605</v>
+        <v>1924114.962287482</v>
       </c>
       <c r="D37" t="n">
-        <v>115204.1474103272</v>
+        <v>40835.29093428669</v>
       </c>
       <c r="E37" t="n">
-        <v>2585506.788915464</v>
+        <v>2234858.304184174</v>
       </c>
       <c r="F37" t="n">
-        <v>181992.1693310364</v>
+        <v>151810.0447734559</v>
       </c>
       <c r="G37" t="n">
-        <v>158968.2403252103</v>
+        <v>182041.7873377773</v>
       </c>
     </row>
     <row r="38">
@@ -1301,19 +1301,19 @@
         <v>36</v>
       </c>
       <c r="C38" t="n">
-        <v>2606087.036124913</v>
+        <v>4068075.101747172</v>
       </c>
       <c r="D38" t="n">
-        <v>100583.4552025201</v>
+        <v>87280.59303559391</v>
       </c>
       <c r="E38" t="n">
-        <v>1545944.781666589</v>
+        <v>1765014.540804299</v>
       </c>
       <c r="F38" t="n">
-        <v>161009.7889646261</v>
+        <v>99709.75009899525</v>
       </c>
       <c r="G38" t="n">
-        <v>239813.5705435011</v>
+        <v>129636.5160671861</v>
       </c>
     </row>
     <row r="39">
@@ -1324,19 +1324,19 @@
         <v>37</v>
       </c>
       <c r="C39" t="n">
-        <v>2097514.819916904</v>
+        <v>2593517.192477162</v>
       </c>
       <c r="D39" t="n">
-        <v>58164.30135023665</v>
+        <v>119514.3595248218</v>
       </c>
       <c r="E39" t="n">
-        <v>818319.1956314401</v>
+        <v>1676037.232401228</v>
       </c>
       <c r="F39" t="n">
-        <v>280106.8926739487</v>
+        <v>73391.71171536403</v>
       </c>
       <c r="G39" t="n">
-        <v>277191.4877320345</v>
+        <v>193128.3708732431</v>
       </c>
     </row>
     <row r="40">
@@ -1347,19 +1347,19 @@
         <v>38</v>
       </c>
       <c r="C40" t="n">
-        <v>4375465.110307577</v>
+        <v>413651.9497958287</v>
       </c>
       <c r="D40" t="n">
-        <v>125267.6322264298</v>
+        <v>114279.9361966069</v>
       </c>
       <c r="E40" t="n">
-        <v>2683427.212244969</v>
+        <v>1928376.427698981</v>
       </c>
       <c r="F40" t="n">
-        <v>207940.8032949063</v>
+        <v>136422.8732281596</v>
       </c>
       <c r="G40" t="n">
-        <v>211386.676023262</v>
+        <v>101666.2251371494</v>
       </c>
     </row>
     <row r="41">
@@ -1370,19 +1370,19 @@
         <v>39</v>
       </c>
       <c r="C41" t="n">
-        <v>2436838.402103981</v>
+        <v>1455801.578216649</v>
       </c>
       <c r="D41" t="n">
-        <v>30333.40793902784</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>901032.6711224902</v>
+        <v>2466599.010642492</v>
       </c>
       <c r="F41" t="n">
-        <v>231992.6825655532</v>
+        <v>141186.8019653357</v>
       </c>
       <c r="G41" t="n">
-        <v>156650.657955976</v>
+        <v>156100.2532131933</v>
       </c>
     </row>
     <row r="42">
@@ -1393,19 +1393,19 @@
         <v>40</v>
       </c>
       <c r="C42" t="n">
-        <v>2553646.791221825</v>
+        <v>3086695.339139005</v>
       </c>
       <c r="D42" t="n">
-        <v>154430.8545008611</v>
+        <v>73858.45135542072</v>
       </c>
       <c r="E42" t="n">
-        <v>1724679.31523072</v>
+        <v>1135066.103933703</v>
       </c>
       <c r="F42" t="n">
-        <v>212310.5089275682</v>
+        <v>70855.12528816835</v>
       </c>
       <c r="G42" t="n">
-        <v>125439.7565607929</v>
+        <v>58270.33564510231</v>
       </c>
     </row>
     <row r="43">
@@ -1416,19 +1416,19 @@
         <v>41</v>
       </c>
       <c r="C43" t="n">
-        <v>5343608.48640581</v>
+        <v>2455202.77990151</v>
       </c>
       <c r="D43" t="n">
-        <v>29777.50069640574</v>
+        <v>102059.6843234751</v>
       </c>
       <c r="E43" t="n">
-        <v>2586667.344491026</v>
+        <v>465662.8195538919</v>
       </c>
       <c r="F43" t="n">
-        <v>191053.0569217793</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>156105.5828389899</v>
+        <v>133727.0630914776</v>
       </c>
     </row>
     <row r="44">
@@ -1439,19 +1439,19 @@
         <v>42</v>
       </c>
       <c r="C44" t="n">
-        <v>1553512.685817041</v>
+        <v>4988617.98716188</v>
       </c>
       <c r="D44" t="n">
-        <v>103914.5552970953</v>
+        <v>126788.2214263595</v>
       </c>
       <c r="E44" t="n">
-        <v>2108325.259462116</v>
+        <v>2685279.707753702</v>
       </c>
       <c r="F44" t="n">
-        <v>127449.00847479</v>
+        <v>49016.28208280928</v>
       </c>
       <c r="G44" t="n">
-        <v>229197.0449299821</v>
+        <v>67782.21685712924</v>
       </c>
     </row>
     <row r="45">
@@ -1462,19 +1462,19 @@
         <v>43</v>
       </c>
       <c r="C45" t="n">
-        <v>1950676.55158708</v>
+        <v>4801083.690069546</v>
       </c>
       <c r="D45" t="n">
-        <v>137191.1030353974</v>
+        <v>126675.3145950817</v>
       </c>
       <c r="E45" t="n">
-        <v>1914807.990886492</v>
+        <v>1847505.395411593</v>
       </c>
       <c r="F45" t="n">
-        <v>264554.0988417491</v>
+        <v>42317.52944919984</v>
       </c>
       <c r="G45" t="n">
-        <v>183506.5013596831</v>
+        <v>307017.7973882206</v>
       </c>
     </row>
     <row r="46">
@@ -1485,19 +1485,19 @@
         <v>44</v>
       </c>
       <c r="C46" t="n">
-        <v>1263168.670215297</v>
+        <v>3681280.701125862</v>
       </c>
       <c r="D46" t="n">
-        <v>75260.42599611433</v>
+        <v>129911.3288557306</v>
       </c>
       <c r="E46" t="n">
-        <v>950430.4517539032</v>
+        <v>1260732.684085413</v>
       </c>
       <c r="F46" t="n">
-        <v>110159.470185077</v>
+        <v>211540.4042513415</v>
       </c>
       <c r="G46" t="n">
-        <v>194441.9153142396</v>
+        <v>204460.0070263817</v>
       </c>
     </row>
     <row r="47">
@@ -1508,19 +1508,19 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>1464145.335326585</v>
+        <v>2281052.475219871</v>
       </c>
       <c r="D47" t="n">
-        <v>112650.3755718215</v>
+        <v>108198.686092597</v>
       </c>
       <c r="E47" t="n">
-        <v>2151317.86057943</v>
+        <v>2409024.882811486</v>
       </c>
       <c r="F47" t="n">
-        <v>201943.7213573169</v>
+        <v>249119.5669311434</v>
       </c>
       <c r="G47" t="n">
-        <v>81864.40729289464</v>
+        <v>170122.8257236923</v>
       </c>
     </row>
     <row r="48">
@@ -1531,19 +1531,19 @@
         <v>46</v>
       </c>
       <c r="C48" t="n">
-        <v>2420022.710277508</v>
+        <v>3539472.860689285</v>
       </c>
       <c r="D48" t="n">
-        <v>127584.7643733274</v>
+        <v>120145.6447528957</v>
       </c>
       <c r="E48" t="n">
-        <v>1658193.516934116</v>
+        <v>2428586.204331638</v>
       </c>
       <c r="F48" t="n">
-        <v>1649.398179567885</v>
+        <v>206361.6578623871</v>
       </c>
       <c r="G48" t="n">
-        <v>85044.86529603477</v>
+        <v>317833.5434594504</v>
       </c>
     </row>
     <row r="49">
@@ -1554,19 +1554,19 @@
         <v>47</v>
       </c>
       <c r="C49" t="n">
-        <v>3060439.05791306</v>
+        <v>478368.9110204559</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>67770.88153926961</v>
       </c>
       <c r="E49" t="n">
-        <v>1942838.7087765</v>
+        <v>2221065.089966986</v>
       </c>
       <c r="F49" t="n">
-        <v>231339.9869103155</v>
+        <v>135607.9964334984</v>
       </c>
       <c r="G49" t="n">
-        <v>311565.4556543507</v>
+        <v>258828.1948594277</v>
       </c>
     </row>
     <row r="50">
@@ -1577,19 +1577,19 @@
         <v>48</v>
       </c>
       <c r="C50" t="n">
-        <v>1783291.279332126</v>
+        <v>2435037.26988106</v>
       </c>
       <c r="D50" t="n">
-        <v>129083.3993137798</v>
+        <v>74685.04151819969</v>
       </c>
       <c r="E50" t="n">
-        <v>2625002.063652098</v>
+        <v>1751252.563686576</v>
       </c>
       <c r="F50" t="n">
-        <v>33076.10837779459</v>
+        <v>107015.6216141001</v>
       </c>
       <c r="G50" t="n">
-        <v>221462.1094794441</v>
+        <v>262038.1459010054</v>
       </c>
     </row>
     <row r="51">
@@ -1600,19 +1600,19 @@
         <v>49</v>
       </c>
       <c r="C51" t="n">
-        <v>2196432.276878605</v>
+        <v>3103422.809327133</v>
       </c>
       <c r="D51" t="n">
-        <v>76906.12490227073</v>
+        <v>74905.56763362476</v>
       </c>
       <c r="E51" t="n">
-        <v>2390830.656137789</v>
+        <v>2037697.540312812</v>
       </c>
       <c r="F51" t="n">
-        <v>163497.5993502414</v>
+        <v>137320.9994445916</v>
       </c>
       <c r="G51" t="n">
-        <v>74541.61099569265</v>
+        <v>158083.6881360426</v>
       </c>
     </row>
     <row r="52">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="C52" t="n">
-        <v>899833.4497932189</v>
+        <v>4403356.851175584</v>
       </c>
       <c r="D52" t="n">
-        <v>87227.44038264392</v>
+        <v>113324.7280146898</v>
       </c>
       <c r="E52" t="n">
-        <v>1991590.73419851</v>
+        <v>1935052.830633826</v>
       </c>
       <c r="F52" t="n">
-        <v>193303.9379292975</v>
+        <v>125195.829843882</v>
       </c>
       <c r="G52" t="n">
-        <v>196859.2255148666</v>
+        <v>93826.11891610046</v>
       </c>
     </row>
   </sheetData>
